--- a/group-reports/tables/shahriar-1-2-tests-results-test-2.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-results-test-2.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>28955</t>
+          <t>28955 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>3672.86</t>
+          <t>3672.86 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>353 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>12197</t>
+          <t>12197 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>6718.59</t>
+          <t>6718.59 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>103 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>5122 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>2792.86</t>
+          <t>2792.86 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>106 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>5477 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>2831.53</t>
+          <t>2831.53 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>686 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>12133</t>
+          <t>12133 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>6321.16</t>
+          <t>6321.16 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>179 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>11513</t>
+          <t>11513 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>6789.37</t>
+          <t>6789.37 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>67 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>5175</t>
+          <t>5175 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>2831.28</t>
+          <t>2831.28 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>4892</t>
+          <t>4892 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>2825.75</t>
+          <t>2825.75 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>701 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>5255</t>
+          <t>5255 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>2792.77</t>
+          <t>2792.77 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>155 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>5231</t>
+          <t>5231 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>2801.72</t>
+          <t>2801.72 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>122 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>5928</t>
+          <t>5928 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>3216.79</t>
+          <t>3216.79 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>286 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>5228</t>
+          <t>5228 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>2795.25</t>
+          <t>2795.25 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>726 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>14561</t>
+          <t>14561 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>7279.28</t>
+          <t>7279.28 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>4013</t>
+          <t>4013 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>13261</t>
+          <t>13261 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>6985.64</t>
+          <t>6985.64 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>111 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>4524</t>
+          <t>4524 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>2790.54</t>
+          <t>2790.54 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>1226 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>5251 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>2802.35</t>
+          <t>2802.35 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>5295</t>
+          <t>5295 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>2793.40</t>
+          <t>2793.40 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>331 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>5233</t>
+          <t>5233 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>2793.28</t>
+          <t>2793.28 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>473 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>12405</t>
+          <t>12405 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>6757.74</t>
+          <t>6757.74 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>830 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>5245</t>
+          <t>5245 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>2792.78</t>
+          <t>2792.78 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>5246</t>
+          <t>5246 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>2808.66</t>
+          <t>2808.66 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
